--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -382,10 +382,10 @@
   <cols>
     <col min="1" max="1" customWidth="1" width="37"/>
     <col min="2" max="2" customWidth="1" width="115"/>
-    <col min="3" max="3" customWidth="1" width="21"/>
+    <col min="3" max="3" customWidth="1" width="18"/>
     <col min="4" max="4" customWidth="1" width="17"/>
     <col min="5" max="5" customWidth="1" width="17"/>
-    <col min="6" max="6" customWidth="1" width="16"/>
+    <col min="6" max="6" customWidth="1" width="14"/>
     <col min="7" max="7" customWidth="1" width="18"/>
   </cols>
   <sheetData>
@@ -414,16 +414,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>EDMC Pr School C1 Yamuna Vihar</v>
+        <v>CGHS Disp Yamuna Vihar PHC</v>
       </c>
       <c r="B2" t="str">
-        <v>EDMC Primary School C-1 Yamuna Vihar, North East Delhi, Delhi, 110053</v>
+        <v>B2 New Delhi 123 Block B Yamuna Vihar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C2" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D2" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E2" t="str">
         <v>Precaution</v>
@@ -432,15 +432,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>EDMC Pr School Chauhan Bangar</v>
+        <v>Nigam Pratibha Vidhyalay</v>
       </c>
       <c r="B3" t="str">
-        <v>Chauhan Bangar North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Arvind Nagar Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C3" t="str">
         <v>COVAXINFree</v>
@@ -455,21 +455,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>EDMC Pr School Chauhan Bangar</v>
+        <v>MCW Gautampuri PHC</v>
       </c>
       <c r="B4" t="str">
-        <v>Chauhan Bangar North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Opposite MCD Flats Kaithwada Gautam Puri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C4" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D4" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E4" t="str">
         <v>Precaution</v>
@@ -478,21 +478,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Community Centre C 12 Yamuna V</v>
+        <v>Polyclinic Gautampuri PHC</v>
       </c>
       <c r="B5" t="str">
-        <v>Community Centre C 12 Yamuna Vihar (1104009)NORTH EAST DELHI, North East Delhi, Delhi, 110053</v>
+        <v>DGD GAUTAMPURI T- BLOCK GALI NO.7GAUTAMPURI DELHI, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C5" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D5" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E5" t="str">
         <v>Precaution</v>
@@ -501,21 +501,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>EDMC Pri School Shastri Park</v>
+        <v>Community Centre C 12 Yamuna V</v>
       </c>
       <c r="B6" t="str">
-        <v>Near DDA Ground Durga Mandir North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Community Centre C 12 Yamuna Vihar (1104009)NORTH EAST DELHI, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C6" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D6" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E6" t="str">
         <v>Precaution</v>
@@ -524,15 +524,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>EDMC Pri School Shastri Park</v>
+        <v>EDMC Pr School C1 Yamuna Vihar</v>
       </c>
       <c r="B7" t="str">
-        <v>Near DDA Ground Durga Mandir North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>EDMC Primary School C-1 Yamuna Vihar, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C7" t="str">
         <v>COVAXINFree</v>
@@ -547,21 +547,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GBSSS Brahmpuri</v>
+        <v>SBV Buland Msjid Shastri Park</v>
       </c>
       <c r="B8" t="str">
-        <v>GBSSS  X-Block Brahmpuri North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Buland Masjid Shastri Park North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C8" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D8" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E8" t="str">
         <v>Precaution</v>
@@ -570,15 +570,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>GBSSS Brahmpuri</v>
+        <v>Pt MMM SB Vidhalaya Gautampuri</v>
       </c>
       <c r="B9" t="str">
-        <v>GBSSS  X-Block Brahmpuri North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Pt. Madan Mohan Malviya SB Vidhalaya Gali No. 7 Gautampuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C9" t="str">
         <v>COVAXINFree</v>
@@ -593,15 +593,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>MCW New Seelampur PHC</v>
+        <v>SPUHC Brahampuri PHC</v>
       </c>
       <c r="B10" t="str">
-        <v>F-84 NEW SEELAMPUR PH-1  DELHI-53, North East Delhi, Delhi, 110053</v>
+        <v>H. No-x-10-10 B KH No.-77 Gali No.-10 Brahmpuri, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C10" t="str">
         <v>COVAXINFree</v>
@@ -616,7 +616,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="11">
@@ -627,10 +627,10 @@
         <v>F-84 NEW SEELAMPUR PH-1  DELHI-53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C11" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D11" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E11" t="str">
         <v>Precaution</v>
@@ -639,21 +639,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>MH Yamuna Vihar CHC</v>
+        <v>DGD Arvind Nagar PHC</v>
       </c>
       <c r="B12" t="str">
-        <v>MCD M And CW HM B2 Block Yamuna Vihar Near Petrol Pump 53, North East Delhi, Delhi, 110053</v>
+        <v>Delhi Govt Dispensary Arvind Nagar Ghonda Delhi-53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C12" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D12" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E12" t="str">
         <v>Precaution</v>
@@ -662,15 +662,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>MH Yamuna Vihar CHC</v>
+        <v>EDMC Primary Sch Bhajanpura S1</v>
       </c>
       <c r="B13" t="str">
-        <v>MCD M And CW HM B2 Block Yamuna Vihar Near Petrol Pump 53, North East Delhi, Delhi, 110053</v>
+        <v>EDMC Primary School B And D Block Bhajanpura North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C13" t="str">
         <v>COVAXINFree</v>
@@ -685,21 +685,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G13" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>CR Dass GSK Vidyalaya</v>
+        <v>EDMC Pr School Chauhan Bangar</v>
       </c>
       <c r="B14" t="str">
-        <v>New Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Chauhan Bangar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C14" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D14" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E14" t="str">
         <v>Precaution</v>
@@ -708,15 +708,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G14" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>CR Dass GSK Vidyalaya</v>
+        <v>SPUHC Jafrabad PHC</v>
       </c>
       <c r="B15" t="str">
-        <v>New Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Taiyab HouseH NO.459GALI NO.21JAFRABAD DELHI-110053, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C15" t="str">
         <v>COVAXINFree</v>
@@ -731,15 +731,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G15" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Nigam Pratibha Vidhyalay</v>
+        <v>GBSSS Brahmpuri</v>
       </c>
       <c r="B16" t="str">
-        <v>Arvind Nagar Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>GBSSS  X-Block Brahmpuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C16" t="str">
         <v>COVAXINFree</v>
@@ -754,21 +754,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G16" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Nigam Pratibha Vidhyalay</v>
+        <v>GBSSS No. 1 North Ghonda AN S1</v>
       </c>
       <c r="B17" t="str">
-        <v>Arvind Nagar Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>North Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C17" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D17" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E17" t="str">
         <v>Precaution</v>
@@ -777,15 +777,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G17" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>GBSSS No. 1 North Ghonda AN S1</v>
+        <v>JPC Hospital Ground Floor</v>
       </c>
       <c r="B18" t="str">
-        <v>North Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Shastri Park Delhi - 110053, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C18" t="str">
         <v>COVAXINFree</v>
@@ -800,21 +800,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G18" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>GBSSS No. 1 North Ghonda AN S1</v>
+        <v>MH Yamuna Vihar CHC</v>
       </c>
       <c r="B19" t="str">
-        <v>North Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>MCD M And CW HM B2 Block Yamuna Vihar Near Petrol Pump 53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C19" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D19" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E19" t="str">
         <v>Precaution</v>
@@ -823,90 +823,90 @@
         <v>1 Slots</v>
       </c>
       <c r="G19" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>DMRC Metro Seelampur</v>
       </c>
       <c r="B20" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>DMRC Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C20" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D20" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E20" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F20" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G20" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>CR Dass GSK Vidyalaya</v>
       </c>
       <c r="B21" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>New Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C21" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D21" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E21" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F21" t="str">
-        <v>200 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G21" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>CGHS Disp Yamuna Vihar PHC</v>
       </c>
       <c r="B22" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>B2 New Delhi 123 Block B Yamuna Vihar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C22" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D22" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E22" t="str">
         <v>Precaution</v>
       </c>
       <c r="F22" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G22" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>SPUHC Jafrabad PHC</v>
+        <v>Nigam Pratibha Vidhyalay</v>
       </c>
       <c r="B23" t="str">
-        <v>Taiyab HouseH NO.459GALI NO.21JAFRABAD DELHI-110053, North East Delhi, Delhi, 110053</v>
+        <v>Arvind Nagar Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C23" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D23" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E23" t="str">
         <v>Precaution</v>
@@ -915,15 +915,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G23" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>SPUHC Jafrabad PHC</v>
+        <v>MCW Gautampuri PHC</v>
       </c>
       <c r="B24" t="str">
-        <v>Taiyab HouseH NO.459GALI NO.21JAFRABAD DELHI-110053, North East Delhi, Delhi, 110053</v>
+        <v>Opposite MCD Flats Kaithwada Gautam Puri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C24" t="str">
         <v>COVAXINFree</v>
@@ -938,15 +938,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G24" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>EDMC Primary Sch Bhajanpura S1</v>
+        <v>Polyclinic Gautampuri PHC</v>
       </c>
       <c r="B25" t="str">
-        <v>EDMC Primary School B And D Block Bhajanpura North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>DGD GAUTAMPURI T- BLOCK GALI NO.7GAUTAMPURI DELHI, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C25" t="str">
         <v>COVAXINFree</v>
@@ -961,15 +961,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G25" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Pt MMM SB Vidhalaya Gautampuri</v>
+        <v>Community Centre C 12 Yamuna V</v>
       </c>
       <c r="B26" t="str">
-        <v>Pt. Madan Mohan Malviya SB Vidhalaya Gali No. 7 Gautampuri North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Community Centre C 12 Yamuna Vihar (1104009)NORTH EAST DELHI, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C26" t="str">
         <v>COVAXINFree</v>
@@ -984,21 +984,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G26" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Pt MMM SB Vidhalaya Gautampuri</v>
+        <v>EDMC Pr School C1 Yamuna Vihar</v>
       </c>
       <c r="B27" t="str">
-        <v>Pt. Madan Mohan Malviya SB Vidhalaya Gali No. 7 Gautampuri North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>EDMC Primary School C-1 Yamuna Vihar, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C27" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D27" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E27" t="str">
         <v>Precaution</v>
@@ -1007,7 +1007,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G27" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="28">
@@ -1018,10 +1018,10 @@
         <v>Buland Masjid Shastri Park North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C28" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D28" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E28" t="str">
         <v>Precaution</v>
@@ -1030,15 +1030,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G28" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>SBV Buland Msjid Shastri Park</v>
+        <v>Pt MMM SB Vidhalaya Gautampuri</v>
       </c>
       <c r="B29" t="str">
-        <v>Buland Masjid Shastri Park North East Delhi, North East Delhi, Delhi, 110053</v>
+        <v>Pt. Madan Mohan Malviya SB Vidhalaya Gali No. 7 Gautampuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C29" t="str">
         <v>COVAXINFree</v>
@@ -1053,15 +1053,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G29" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Polyclinic Gautampuri PHC</v>
+        <v>SPUHC Brahampuri PHC</v>
       </c>
       <c r="B30" t="str">
-        <v>DGD GAUTAMPURI T- BLOCK GALI NO.7GAUTAMPURI DELHI, North East Delhi, Delhi, 110053</v>
+        <v>H. No-x-10-10 B KH No.-77 Gali No.-10 Brahmpuri, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C30" t="str">
         <v>COVAXINFree</v>
@@ -1076,84 +1076,84 @@
         <v>1 Slots</v>
       </c>
       <c r="G30" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>MCW Welcome Seelampur PHC</v>
+        <v>MCW New Seelampur PHC</v>
       </c>
       <c r="B31" t="str">
-        <v>MCW CENTER WELCOME NEAR COMMUNITY HALL, Shahdara, Delhi, 110053</v>
+        <v>F-84 NEW SEELAMPUR PH-1  DELHI-53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C31" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D31" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E31" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F31" t="str">
-        <v>98 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G31" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>MCW Welcome Seelampur PHC</v>
+        <v>DGD Yamuna Vihar PHC</v>
       </c>
       <c r="B32" t="str">
-        <v>MCW CENTER WELCOME NEAR COMMUNITY HALL, Shahdara, Delhi, 110053</v>
+        <v>Near Mother Dairy B-Block Yamuna Vihar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C32" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D32" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E32" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F32" t="str">
-        <v>194 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G32" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>MCW Welcome Seelampur PHC</v>
+        <v>DGD Arvind Nagar PHC</v>
       </c>
       <c r="B33" t="str">
-        <v>MCW CENTER WELCOME NEAR COMMUNITY HALL, Shahdara, Delhi, 110053</v>
+        <v>Delhi Govt Dispensary Arvind Nagar Ghonda Delhi-53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C33" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D33" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E33" t="str">
         <v>Precaution</v>
       </c>
       <c r="F33" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G33" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>SPUHC Brahampuri PHC</v>
+        <v>EDMC Primary Sch Bhajanpura S1</v>
       </c>
       <c r="B34" t="str">
-        <v>H. No-x-10-10 B KH No.-77 Gali No.-10 Brahmpuri, North East Delhi, Delhi, 110053</v>
+        <v>EDMC Primary School B And D Block Bhajanpura North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C34" t="str">
         <v>COVAXINFree</v>
@@ -1168,21 +1168,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G34" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>SPUHC Brahampuri PHC</v>
+        <v>EDMC Pr School Chauhan Bangar</v>
       </c>
       <c r="B35" t="str">
-        <v>H. No-x-10-10 B KH No.-77 Gali No.-10 Brahmpuri, North East Delhi, Delhi, 110053</v>
+        <v>Chauhan Bangar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C35" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D35" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E35" t="str">
         <v>Precaution</v>
@@ -1191,90 +1191,90 @@
         <v>1 Slots</v>
       </c>
       <c r="G35" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>SPUHC Jafrabad PHC</v>
       </c>
       <c r="B36" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>Taiyab HouseH NO.459GALI NO.21JAFRABAD DELHI-110053, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C36" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D36" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E36" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F36" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G36" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>GBSSS Brahmpuri</v>
       </c>
       <c r="B37" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>GBSSS  X-Block Brahmpuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C37" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D37" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E37" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F37" t="str">
-        <v>194 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G37" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>GBSSS No. 1 North Ghonda AN S1</v>
       </c>
       <c r="B38" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>North Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C38" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D38" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E38" t="str">
         <v>Precaution</v>
       </c>
       <c r="F38" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G38" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>JPC Hospital Ground Floor</v>
+        <v>EDMC Pri School Shastri Park</v>
       </c>
       <c r="B39" t="str">
-        <v>Shastri Park Delhi - 110053, North East Delhi, Delhi, 110053</v>
+        <v>Near DDA Ground Durga Mandir North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C39" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D39" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E39" t="str">
         <v>Precaution</v>
@@ -1283,352 +1283,352 @@
         <v>1 Slots</v>
       </c>
       <c r="G39" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>MH Yamuna Vihar CHC</v>
       </c>
       <c r="B40" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>MCD M And CW HM B2 Block Yamuna Vihar Near Petrol Pump 53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C40" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D40" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E40" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F40" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G40" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>DMRC Metro Seelampur</v>
       </c>
       <c r="B41" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>DMRC Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C41" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D41" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E41" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F41" t="str">
-        <v>200 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G41" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>CR Dass GSK Vidyalaya</v>
       </c>
       <c r="B42" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>New Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C42" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D42" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E42" t="str">
         <v>Precaution</v>
       </c>
       <c r="F42" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G42" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>Nigam Pratibha Vidhyalay</v>
       </c>
       <c r="B43" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>Arvind Nagar Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C43" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D43" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E43" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F43" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G43" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>Community Centre C 12 Yamuna V</v>
       </c>
       <c r="B44" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>Community Centre C 12 Yamuna Vihar (1104009)NORTH EAST DELHI, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C44" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D44" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E44" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F44" t="str">
-        <v>199 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G44" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>EDMC Pr School C1 Yamuna Vihar</v>
       </c>
       <c r="B45" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>EDMC Primary School C-1 Yamuna Vihar, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C45" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D45" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E45" t="str">
         <v>Precaution</v>
       </c>
       <c r="F45" t="str">
-        <v>98 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G45" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>SBV Buland Msjid Shastri Park</v>
       </c>
       <c r="B46" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>Buland Masjid Shastri Park North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C46" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D46" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E46" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F46" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G46" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>Pt MMM SB Vidhalaya Gautampuri</v>
       </c>
       <c r="B47" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>Pt. Madan Mohan Malviya SB Vidhalaya Gali No. 7 Gautampuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C47" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D47" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E47" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F47" t="str">
-        <v>199 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G47" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>GBSSS Jafrabad Extn Site 2</v>
+        <v>EDMC Primary Sch Bhajanpura S1</v>
       </c>
       <c r="B48" t="str">
-        <v>GBSSS Jafrabad Extn, Shahdara, Delhi, 110053</v>
+        <v>EDMC Primary School B And D Block Bhajanpura North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C48" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D48" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E48" t="str">
         <v>Precaution</v>
       </c>
       <c r="F48" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G48" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>MCW Welcome Seelampur PHC</v>
+        <v>EDMC Pr School Chauhan Bangar</v>
       </c>
       <c r="B49" t="str">
-        <v>MCW CENTER WELCOME NEAR COMMUNITY HALL, Shahdara, Delhi, 110053</v>
+        <v>Chauhan Bangar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C49" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D49" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E49" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F49" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G49" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>MCW Welcome Seelampur PHC</v>
+        <v>GBSSS Brahmpuri</v>
       </c>
       <c r="B50" t="str">
-        <v>MCW CENTER WELCOME NEAR COMMUNITY HALL, Shahdara, Delhi, 110053</v>
+        <v>GBSSS  X-Block Brahmpuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C50" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D50" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E50" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F50" t="str">
-        <v>199 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G50" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>MCW Welcome Seelampur PHC</v>
+        <v>GBSSS No. 1 North Ghonda AN S1</v>
       </c>
       <c r="B51" t="str">
-        <v>MCW CENTER WELCOME NEAR COMMUNITY HALL, Shahdara, Delhi, 110053</v>
+        <v>North Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C51" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D51" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E51" t="str">
         <v>Precaution</v>
       </c>
       <c r="F51" t="str">
-        <v>99 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G51" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>EDMC Pri School Shastri Park</v>
       </c>
       <c r="B52" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>Near DDA Ground Durga Mandir North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C52" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D52" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E52" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F52" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G52" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>DMRC Metro Seelampur</v>
       </c>
       <c r="B53" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>DMRC Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C53" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D53" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E53" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F53" t="str">
-        <v>200 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G53" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>EDMC Schol MohnPuriVijy Park-2</v>
+        <v>CR Dass GSK Vidyalaya</v>
       </c>
       <c r="B54" t="str">
-        <v>EDMC-Primary School Mohanpuri Vijay Park Maujpur, Shahdara, Delhi, 110053</v>
+        <v>New Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C54" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D54" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E54" t="str">
         <v>Precaution</v>
       </c>
       <c r="F54" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G54" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Mon, 28 Mar</v>
       </c>
     </row>
   </sheetData>
